--- a/src/main/java/com/sharepoint/qa/testdata/SharepointTestData.xlsx
+++ b/src/main/java/com/sharepoint/qa/testdata/SharepointTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15150" windowHeight="8535" tabRatio="783" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15150" windowHeight="8535" tabRatio="783" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateNewBidLables" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
